--- a/Statistiche PBI/statistiche.xlsx
+++ b/Statistiche PBI/statistiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.rivieccio\Desktop\Algoritmi-di-Ottimizzazione-Combinatoria-e-su-Rete-\Statistiche PBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846970F-93D2-41B0-8129-CD71072B1CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6070272-78E2-484D-B7F0-7D32E26DAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B49C17-4FE4-4C97-96B6-BE78D85D183B}"/>
   </bookViews>
@@ -362,23 +362,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -417,7 +417,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E31" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
     <sortCondition ref="D1:D7"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01836B59-9B6B-4198-A7E2-5F6311658F1C}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
         <v>33523.71</v>
       </c>
       <c r="E5" s="10">
-        <v>0.14000000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/Statistiche PBI/statistiche.xlsx
+++ b/Statistiche PBI/statistiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.rivieccio\Desktop\Algoritmi-di-Ottimizzazione-Combinatoria-e-su-Rete-\Statistiche PBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6070272-78E2-484D-B7F0-7D32E26DAB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B01AAD-09EB-49D5-943D-BC00906667FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B49C17-4FE4-4C97-96B6-BE78D85D183B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B49C17-4FE4-4C97-96B6-BE78D85D183B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>Istanza</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Local Search First Improvement (Greedy MS)</t>
   </si>
   <si>
-    <t>Simulated Annealing (Greedy MS)</t>
-  </si>
-  <si>
     <t>lin318</t>
   </si>
   <si>
@@ -84,16 +81,31 @@
   </si>
   <si>
     <t>NrNodi</t>
+  </si>
+  <si>
+    <t>Simulated Annealing (Greedy MS) Random Search</t>
+  </si>
+  <si>
+    <t>Simulated Annealing (Greedy MS) Grid Search</t>
+  </si>
+  <si>
+    <t>Simulated Annealing (Greedy MS) Default Params</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -262,6 +274,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -417,10 +439,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E31" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E7">
-    <sortCondition ref="D1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E41" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+    <sortCondition ref="D1:D9"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{35FE4B5E-4B6D-45B1-A388-98A0C7BDC25A}" name="Istanza" dataDxfId="4"/>
@@ -750,16 +772,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01836B59-9B6B-4198-A7E2-5F6311658F1C}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -773,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
@@ -803,7 +825,7 @@
         <v>33523.71</v>
       </c>
       <c r="E2" s="10">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="9">
-        <v>33584.5</v>
+        <v>35384.5</v>
       </c>
       <c r="E3" s="10">
-        <v>0.2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,7 +859,7 @@
         <v>35448.9</v>
       </c>
       <c r="E4" s="10">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,13 +870,13 @@
         <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>33523.71</v>
-      </c>
-      <c r="E5" s="10">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="13">
+        <v>33588.339999999997</v>
+      </c>
+      <c r="E5" s="13">
+        <v>71.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -864,358 +886,360 @@
       <c r="B6" s="5">
         <v>48</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13">
         <v>39236.879999999997</v>
       </c>
-      <c r="E6" s="10">
-        <v>4.4000000000000003E-3</v>
+      <c r="E6" s="13">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5">
         <v>48</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>40526.42</v>
-      </c>
-      <c r="E7" s="12">
-        <v>8.0000000000000007E-5</v>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9">
+        <v>38036.9</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1.83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>130</v>
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11">
-        <v>6110.72</v>
-      </c>
-      <c r="E8" s="12">
-        <v>48.25</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>39236.879999999997</v>
+      </c>
+      <c r="E8" s="10">
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>40526.42</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="5">
         <v>130</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>6110.72</v>
+      </c>
+      <c r="E10" s="10">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>130</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D11" s="9">
         <v>6407.16</v>
       </c>
-      <c r="E9" s="12">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="E11" s="10">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B12" s="5">
         <v>130</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D12" s="9">
         <v>6362.83</v>
       </c>
-      <c r="E10" s="12">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="E12" s="10">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B13" s="5">
         <v>130</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="11">
-        <v>6376.09</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6719.71</v>
+      </c>
+      <c r="E13" s="13">
+        <v>67.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B14" s="5">
         <v>130</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13">
         <v>7198.74</v>
       </c>
-      <c r="E12" s="10">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7">
-        <v>130</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>7575.29</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5.5999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>318</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11">
-        <v>42042.54</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2100</v>
+      <c r="E14" s="13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>318</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>130</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9">
-        <v>45069.63</v>
+        <v>7197.1</v>
       </c>
       <c r="E15" s="10">
-        <v>19.350000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>318</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>130</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="9">
-        <v>44195.48</v>
+        <v>7198.74</v>
       </c>
       <c r="E16" s="10">
-        <v>104.35</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7">
-        <v>318</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="9">
-        <v>46407.4</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2.0299999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
+        <v>130</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7575.29</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
         <v>318</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9">
+        <v>42042.54</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>318</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9">
+        <v>45069.63</v>
+      </c>
+      <c r="E19" s="10">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>318</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9">
+        <v>44195.48</v>
+      </c>
+      <c r="E20" s="10">
+        <v>100.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>318</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13">
+        <v>46087.01</v>
+      </c>
+      <c r="E21" s="13">
+        <v>302.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>318</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="13">
         <v>49215.61</v>
       </c>
-      <c r="E18" s="10">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="E22" s="13">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5">
         <v>318</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>54033.58</v>
-      </c>
-      <c r="E19" s="12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7">
-        <v>442</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="12">
-        <v>50778</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="7">
-        <v>442</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10">
-        <v>53500.72</v>
-      </c>
-      <c r="E21" s="10">
-        <v>71.44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="7">
-        <v>442</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10">
-        <v>54184.06</v>
-      </c>
-      <c r="E22" s="10">
-        <v>141.58000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="7">
-        <v>442</v>
-      </c>
       <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="9">
+        <v>49215.61</v>
+      </c>
+      <c r="E23" s="10">
+        <v>75.430000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="10">
-        <v>59896.32</v>
-      </c>
-      <c r="E23" s="10">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="7">
-        <v>442</v>
+      <c r="B24" s="5">
+        <v>318</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10">
-        <v>58952.97</v>
+      <c r="D24" s="9">
+        <v>49215.61</v>
       </c>
       <c r="E24" s="10">
-        <v>3.92</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="7">
-        <v>442</v>
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5">
+        <v>318</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="10">
-        <v>61984.05</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.01</v>
+      <c r="D25" s="11">
+        <v>54033.58</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>14</v>
+      <c r="A26" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="7">
-        <v>2392</v>
+        <v>442</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>378032</v>
+      <c r="D26" s="12">
+        <v>50778</v>
       </c>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>14</v>
+      <c r="A27" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="7">
-        <v>2392</v>
+        <v>442</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -1224,58 +1248,190 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>14</v>
+      <c r="A28" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="7">
-        <v>2392</v>
+        <v>442</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>14</v>
+      <c r="A29" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B29" s="7">
-        <v>2392</v>
+        <v>442</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>14</v>
+      <c r="A30" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B30" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>8</v>
+        <v>442</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>14</v>
+      <c r="A31" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B31" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>1</v>
+        <v>442</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="7">
+        <v>442</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="7">
+        <v>442</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="16">
+        <v>378032</v>
+      </c>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2392</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Statistiche PBI/statistiche.xlsx
+++ b/Statistiche PBI/statistiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.rivieccio\Desktop\Algoritmi-di-Ottimizzazione-Combinatoria-e-su-Rete-\Statistiche PBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B01AAD-09EB-49D5-943D-BC00906667FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CD1B01-4FD3-487A-A73E-E809F399BBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32B49C17-4FE4-4C97-96B6-BE78D85D183B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32B49C17-4FE4-4C97-96B6-BE78D85D183B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
   <si>
     <t>Istanza</t>
   </si>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -274,16 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -439,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E41" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}" name="Tabella1" displayName="Tabella1" ref="A1:E37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E37" xr:uid="{40094E1E-88A8-4F9D-BA27-8205165E0032}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
     <sortCondition ref="D1:D9"/>
   </sortState>
@@ -772,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01836B59-9B6B-4198-A7E2-5F6311658F1C}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="9">
-        <v>35384.5</v>
+        <v>36292.94</v>
       </c>
       <c r="E3" s="10">
-        <v>7.6999999999999999E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="9">
-        <v>35448.9</v>
+        <v>35024.39</v>
       </c>
       <c r="E4" s="10">
-        <v>0.13</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,11 +866,11 @@
       <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13">
-        <v>33588.339999999997</v>
-      </c>
-      <c r="E5" s="13">
-        <v>71.400000000000006</v>
+      <c r="D5" s="10">
+        <v>33523.71</v>
+      </c>
+      <c r="E5" s="10">
+        <v>62.75</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,14 +880,14 @@
       <c r="B6" s="5">
         <v>48</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>39236.879999999997</v>
       </c>
-      <c r="E6" s="13">
-        <v>1.4999999999999999E-2</v>
+      <c r="E6" s="10">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -907,10 +901,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="9">
-        <v>38036.9</v>
+        <v>38742.53</v>
       </c>
       <c r="E7" s="10">
-        <v>1.83</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="9">
-        <v>6407.16</v>
+        <v>6444.11</v>
       </c>
       <c r="E11" s="10">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="9">
-        <v>6362.83</v>
+        <v>6735.95</v>
       </c>
       <c r="E12" s="10">
-        <v>3.02</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,10 +1002,10 @@
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>6719.71</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>67.89</v>
       </c>
     </row>
@@ -1022,13 +1016,13 @@
       <c r="B14" s="5">
         <v>130</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>7198.74</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>0.15</v>
       </c>
     </row>
@@ -1111,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="9">
-        <v>45069.63</v>
+        <v>44609.35</v>
       </c>
       <c r="E19" s="10">
-        <v>25.72</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="9">
-        <v>44195.48</v>
+        <v>44336.62</v>
       </c>
       <c r="E20" s="10">
-        <v>100.57</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1144,10 +1138,10 @@
       <c r="C21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>46087.01</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>302.61</v>
       </c>
     </row>
@@ -1158,13 +1152,13 @@
       <c r="B22" s="5">
         <v>318</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>49215.61</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>1.57</v>
       </c>
     </row>
@@ -1220,7 +1214,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="7">
@@ -1235,7 +1229,7 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="7">
@@ -1244,11 +1238,15 @@
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="10">
+        <v>53929.72</v>
+      </c>
+      <c r="E27" s="10">
+        <v>63.79</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="7">
@@ -1257,10 +1255,15 @@
       <c r="C28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="D28">
+        <v>54257.2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>160.13</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="7">
@@ -1269,24 +1272,32 @@
       <c r="C29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="10">
+        <v>55498.77</v>
+      </c>
+      <c r="E29" s="10">
+        <v>569.01</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="7">
         <v>442</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="10">
+        <v>58952.97</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4.91</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="7">
@@ -1295,11 +1306,15 @@
       <c r="C31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="D31" s="10">
+        <v>58810.5</v>
+      </c>
+      <c r="E31" s="10">
+        <v>168.28</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="7">
@@ -1308,11 +1323,15 @@
       <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="10">
+        <v>58952.97</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3.94</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="7">
@@ -1321,8 +1340,12 @@
       <c r="C33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="10">
+        <v>61984.05</v>
+      </c>
+      <c r="E33" s="10">
+        <v>7.4000000000000003E-3</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -1334,10 +1357,10 @@
       <c r="C34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="12">
         <v>378032</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -1347,10 +1370,14 @@
         <v>2392</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <v>458789.65</v>
+      </c>
+      <c r="E35" s="10">
+        <v>850.83</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1360,10 +1387,14 @@
         <v>2392</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="10">
+        <v>458789.65</v>
+      </c>
+      <c r="E36" s="10">
+        <v>768.4</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -1372,63 +1403,15 @@
       <c r="B37" s="7">
         <v>2392</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2392</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="D37" s="12">
+        <v>461207.49</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0.33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
